--- a/va_facility_data_2025-02-20/Boise VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Boise%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Boise VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Boise%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc19449f93d1f40b2a75e54a3f2f381b3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra9ea8475e0544c0fbd0defa521dc1360"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf6c21885d63344b3bc84841f6db86ada"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R6846f1528bc74ac4bb91ec92a558b6c1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4c2493e1b4a44553a9ed71257fcdc075"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R526e42e11be047f483ef015756f8e05d"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rcfd93530b2c842609db14222e04acd24"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2fe064a267b64873a70ed9661572d7be"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rde3d52ece12548df83988da16c86b269"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R504bdf8962dd46b782f195687493a8a4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R043c8bc750df413696fcf58e912ab45b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd89d0f336fe8413f9f106a190a7faf10"/>
   </x:sheets>
 </x:workbook>
 </file>
